--- a/src/main/resources/tianhong.xlsx
+++ b/src/main/resources/tianhong.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/test_api/testapi/src/main/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Work/testapi/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="17540"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet name="login-options" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>数据编号</t>
   </si>
@@ -37,62 +37,126 @@
     <t>用例名称</t>
   </si>
   <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
     <t>断言</t>
   </si>
   <si>
-    <t>错误截图</t>
-  </si>
-  <si>
     <t>是否执行</t>
   </si>
   <si>
     <t>执行结果</t>
   </si>
   <si>
-    <t>登录密码错误</t>
-  </si>
-  <si>
-    <t>立即注册</t>
-  </si>
-  <si>
-    <t>pwderror.png</t>
-  </si>
-  <si>
-    <t>测试成功</t>
+    <t>y</t>
+  </si>
+  <si>
+    <t>请求url</t>
+    <rPh sb="0" eb="1">
+      <t>qing qiu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求的参数</t>
+    <rPh sb="0" eb="1">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>can shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/dubhe-auth/user/login-options</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户存在</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cun z</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>登录用户名错误</t>
-  </si>
-  <si>
-    <t>usererror.png</t>
-  </si>
-  <si>
-    <t>密码太短</t>
-  </si>
-  <si>
-    <t>pwdlittle.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方式</t>
+    <rPh sb="0" eb="1">
+      <t>qing qiu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>fang shi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"account": "142037","password":"chen980985672@1"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常操作</t>
+    <rPh sb="0" eb="1">
+      <t>yi chang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cao zuo</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"account": "142037","password":"chen980985672@11"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"account":"142037"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"account":"1420371"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的参数</t>
+    <rPh sb="0" eb="1">
+      <t>cuo wu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>de</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>can shu</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>经验值11</t>
-  </si>
-  <si>
-    <t>successerror.png</t>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"mobile":"176****2017","selfDevice":false,"platform":1,"verificationCodeModel":0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"selfDevice":false,"platform":1,"verificationCodeModel":0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试通过</t>
   </si>
   <si>
     <t>测试失败</t>
@@ -116,32 +180,34 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,39 +215,13 @@
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -219,31 +259,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,14 +597,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="37.1640625" collapsed="true"/>
+    <col min="1" max="1" style="2" width="9.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="18.1640625" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" style="2" width="41.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="57.5" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="51.1640625" collapsed="true"/>
+    <col min="7" max="7" style="2" width="9.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="7" width="16.83203125" collapsed="true"/>
+    <col min="9" max="16384" style="2" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -562,135 +621,130 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s" s="9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s" s="10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
+      <c r="H4" t="s" s="11">
+        <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="5" spans="1:8" ht="82" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3">
-        <v>15210085687</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1234567</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
-        <v>15210086776</v>
-      </c>
-      <c r="D3" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3">
-        <v>15210085687</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1111</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3">
-        <v>15210085687</v>
-      </c>
-      <c r="D5" s="2">
-        <v>12345678</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>21</v>
+      <c r="H5" t="s" s="12">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="15210085687"/>
-    <hyperlink ref="C3" r:id="rId2" display="15210086776"/>
-    <hyperlink ref="C5" r:id="rId3" display="15210085687"/>
-  </hyperlinks>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -704,7 +758,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -718,7 +772,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
